--- a/CMBWLB/oss_223_15/iuid_mapping_WingLung.xlsx
+++ b/CMBWLB/oss_223_15/iuid_mapping_WingLung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqumon\Downloads\223_15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqumon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35BC687B-CB47-416D-9ABC-2798912340B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66313050-BF23-4E05-824A-D646BCB8AC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="2670" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="1890" yWindow="3015" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="205">
   <si>
     <t>iuid</t>
   </si>
@@ -109,22 +109,25 @@
     <t>富达基金 - 环球科技基金A-ACC-USD H</t>
   </si>
   <si>
-    <t>HK_20_F00000YS7N</t>
-  </si>
-  <si>
-    <t>02619</t>
-  </si>
-  <si>
-    <t>LU1548497426</t>
-  </si>
-  <si>
-    <t>Allianz Global Artfcl Intlgc AT USD</t>
-  </si>
-  <si>
-    <t>安聯環球人工智能股票基金 AT USD</t>
-  </si>
-  <si>
-    <t>安联环球人工智能股票基金 AT USD</t>
+    <t>HK_20_F0GBR04T21</t>
+  </si>
+  <si>
+    <t>05305</t>
+  </si>
+  <si>
+    <t>LU0082616367</t>
+  </si>
+  <si>
+    <t>JPM US TECHNOLOGY A(DIST)-USD/U</t>
+  </si>
+  <si>
+    <t>JPM美國科技（美元）─ A股（分派）</t>
+  </si>
+  <si>
+    <t>JPM美国科技（美元）─ A股（分派）</t>
+  </si>
+  <si>
+    <t>Cash</t>
   </si>
   <si>
     <t>HK_20_F00000MC3V</t>
@@ -1139,7 +1142,7 @@
         <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="s">
         <v>16</v>
@@ -1147,122 +1150,122 @@
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" t="s">
         <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s">
         <v>15</v>
       </c>
       <c r="Q5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -1271,22 +1274,22 @@
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s">
         <v>15</v>
@@ -1297,22 +1300,22 @@
     </row>
     <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -1321,22 +1324,22 @@
         <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s">
         <v>15</v>
@@ -1347,22 +1350,22 @@
     </row>
     <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
@@ -1371,22 +1374,22 @@
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P8" t="s">
         <v>15</v>
@@ -1397,22 +1400,22 @@
     </row>
     <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -1421,22 +1424,22 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s">
         <v>15</v>
@@ -1447,72 +1450,72 @@
     </row>
     <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P10" t="s">
         <v>15</v>
       </c>
       <c r="Q10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1521,22 +1524,22 @@
         <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P11" t="s">
         <v>15</v>
@@ -1547,122 +1550,122 @@
     </row>
     <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P12" t="s">
         <v>15</v>
       </c>
       <c r="Q12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P13" t="s">
         <v>15</v>
       </c>
       <c r="Q13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
@@ -1671,22 +1674,22 @@
         <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P14" t="s">
         <v>15</v>
@@ -1697,22 +1700,22 @@
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
@@ -1721,22 +1724,22 @@
         <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P15" t="s">
         <v>15</v>
@@ -1747,22 +1750,22 @@
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
         <v>15</v>
@@ -1771,22 +1774,22 @@
         <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P16" t="s">
         <v>15</v>
@@ -1797,58 +1800,58 @@
     </row>
     <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P17" t="s">
         <v>15</v>
       </c>
       <c r="Q17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/CMBWLB/oss_223_15/iuid_mapping_WingLung.xlsx
+++ b/CMBWLB/oss_223_15/iuid_mapping_WingLung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqumon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66313050-BF23-4E05-824A-D646BCB8AC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA75C9DC-93FD-4F31-B557-ADA1E171E4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="3015" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -58,13 +58,13 @@
     <t>LU0823411888</t>
   </si>
   <si>
-    <t>BNP Paribas Consumer Innovtr Cl USD C</t>
-  </si>
-  <si>
-    <t>法巴主要消費品創新股票基金 C USD</t>
-  </si>
-  <si>
-    <t>法巴主要消费品创新股票基金 C USD</t>
+    <t>BNP PARIBAS CONSUMER INNOVATORS CLASSIC CAP-USD</t>
+  </si>
+  <si>
+    <t>法巴主要消費品創新股票基金 經典資本-美元</t>
+  </si>
+  <si>
+    <t>法巴主要消費品创新股票基金 经典资本-美元</t>
   </si>
   <si>
     <t>Acc</t>
@@ -82,13 +82,13 @@
     <t>LU0594300179</t>
   </si>
   <si>
-    <t>Fidelity China Consumer A-Acc-USD</t>
-  </si>
-  <si>
-    <t>富達基金 - 中國消費動力基金 A USD Acc</t>
-  </si>
-  <si>
-    <t>富达基金 - 中国消费动力基金 A USD Acc</t>
+    <t>FIDELITY CHINA CONSUMER A-ACC-USD</t>
+  </si>
+  <si>
+    <t>富達中國消費動力基金A-累積-美元</t>
+  </si>
+  <si>
+    <t>富达中国消费动力基金A-累积-美元</t>
   </si>
   <si>
     <t>HK_20_F00000VTAH</t>
@@ -100,13 +100,13 @@
     <t>LU1235294995</t>
   </si>
   <si>
-    <t>Fidelity Global Technology A-Acc-USD Hdg</t>
-  </si>
-  <si>
-    <t>富達基金 - 環球科技基金A-ACC-USD H</t>
-  </si>
-  <si>
-    <t>富达基金 - 环球科技基金A-ACC-USD H</t>
+    <t>FIDELITY GLOBAL TECHNOLOGY A-ACC-USD H</t>
+  </si>
+  <si>
+    <t>富達基金-環球科技基金A-累積-美元對沖</t>
+  </si>
+  <si>
+    <t>富达基金-环球科技基金A-累积-美元对冲</t>
   </si>
   <si>
     <t>HK_20_F0GBR04T21</t>
@@ -139,13 +139,13 @@
     <t>LU0605512275</t>
   </si>
   <si>
-    <t>Fidelity Asian Bond A-Acc-USD</t>
-  </si>
-  <si>
-    <t>富達基金 - 亞洲債券基金 A USD Acc</t>
-  </si>
-  <si>
-    <t>富达基金 - 亚洲债券基金 A USD Acc</t>
+    <t>FIDELITY ASIAN BOND A-ACC-USD</t>
+  </si>
+  <si>
+    <t>富達亞洲債券基金A-累積-美元</t>
+  </si>
+  <si>
+    <t>富达亚洲债券基金A-累积-美元</t>
   </si>
   <si>
     <t>Bond</t>
@@ -160,13 +160,13 @@
     <t>LU0229949994</t>
   </si>
   <si>
-    <t>Templeton Asian Bond A(acc)USD</t>
-  </si>
-  <si>
-    <t>鄧普頓亞洲債券基金A (acc)USD</t>
-  </si>
-  <si>
-    <t>邓普顿亚洲债券基金A (acc)USD</t>
+    <t>TEMPLETON ASIAN BOND FUND A(ACC)-USD</t>
+  </si>
+  <si>
+    <t>鄧普頓亞洲債券基金A(累算)-美元</t>
+  </si>
+  <si>
+    <t>邓普顿亚洲债券基金A(累算)-美元</t>
   </si>
   <si>
     <t>HK_20_F0GBR04D2K</t>
@@ -175,16 +175,16 @@
     <t>0402</t>
   </si>
   <si>
-    <t>LU0261946288</t>
-  </si>
-  <si>
-    <t>Fidelity Global Bond A-Acc-USD</t>
-  </si>
-  <si>
-    <t>富達基金 - 國際債券基金 A ACC</t>
-  </si>
-  <si>
-    <t>富达基金 - 全球债券基金 A ACC</t>
+    <t>LU0048582984</t>
+  </si>
+  <si>
+    <t>FIDELITY GLOBAL BOND A-ACC-USD</t>
+  </si>
+  <si>
+    <t>富達環球債券基金A-累積-美元</t>
+  </si>
+  <si>
+    <t>富达环球债券基金A-累积-美元</t>
   </si>
   <si>
     <t>HK_20_F0GBR04LHL</t>
@@ -193,16 +193,16 @@
     <t>21012</t>
   </si>
   <si>
-    <t>LU0252652382</t>
-  </si>
-  <si>
-    <t>Templeton Global Bond A(acc)USD</t>
-  </si>
-  <si>
-    <t>鄧普頓環球債券基金A (acc)USD</t>
-  </si>
-  <si>
-    <t>邓普顿环球债券基金A (acc)USD</t>
+    <t>LU0029871042</t>
+  </si>
+  <si>
+    <t>TEMPLETON GLOBAL BOND A(ACC)-USD</t>
+  </si>
+  <si>
+    <t>鄧普頓環球債券基金A(累算)-美元</t>
+  </si>
+  <si>
+    <t>邓普顿环球债券基金A(累算)-美元</t>
   </si>
   <si>
     <t>HK_20_F0GBR054N4</t>
@@ -232,13 +232,13 @@
     <t>LU0106259558</t>
   </si>
   <si>
-    <t>Schroder ISF Asian Opports A Acc USD</t>
-  </si>
-  <si>
-    <t>施羅德環球基金系列 亞洲優勢 - A-ACC</t>
-  </si>
-  <si>
-    <t>施罗德环球基金系列 亚洲优势 - A-ACC</t>
+    <t>SCHRODER ISF ASIAN OPPORTUNITIES A-ACC-USD</t>
+  </si>
+  <si>
+    <t>施羅德環球基金系列亞洲勢力A-累積-美元</t>
+  </si>
+  <si>
+    <t>施罗德环球基金系列亚洲势力A-累积-美元</t>
   </si>
   <si>
     <t>HK_20_F0GBR04AGE</t>
@@ -268,13 +268,13 @@
     <t>LU0109391861</t>
   </si>
   <si>
-    <t>Franklin US Opportunities A(acc)USD</t>
-  </si>
-  <si>
-    <t>富蘭克林美國機會基金A (acc)USD</t>
-  </si>
-  <si>
-    <t>富兰克林美国机会基金A (acc)USD</t>
+    <t>FRANKLIN US OPPORTUNITIES A(ACC)-USD</t>
+  </si>
+  <si>
+    <t>富蘭克林美國機會基金A(累算)-美元</t>
+  </si>
+  <si>
+    <t>富兰克林美国机会基金A(累算)-美元</t>
   </si>
   <si>
     <t>HK_20_F0GBR04JV5</t>
@@ -286,13 +286,13 @@
     <t>LU0140636845</t>
   </si>
   <si>
-    <t>Schroder ISF Greater China A Acc USD</t>
-  </si>
-  <si>
-    <t>施羅德環球基金系列 - 大中華 - A-ACC</t>
-  </si>
-  <si>
-    <t>施罗德环球基金系列 - 大中华 - A-ACC</t>
+    <t>SCHRODER ISF GREATER CHINA A-ACC-USD</t>
+  </si>
+  <si>
+    <t>施羅德環球基金系列大中華A-累積-美元</t>
+  </si>
+  <si>
+    <t>施罗德环球基金系列大中华A-累积-美元</t>
   </si>
   <si>
     <t>HK_20_F0GBR06FKY</t>
@@ -304,13 +304,13 @@
     <t>LU0244354667</t>
   </si>
   <si>
-    <t>Schroder ISF China Opps A Acc USD</t>
-  </si>
-  <si>
-    <t>施羅德環球基金系列-中國優勢A-ACC</t>
-  </si>
-  <si>
-    <t>施罗德环球基金系列-中国优势A-ACC</t>
+    <t>SCHRODER ISF CHINA OPPORTUNITIES A-ACC-USD</t>
+  </si>
+  <si>
+    <t>施羅德環球基金系列中國優勢A-累積-美元</t>
+  </si>
+  <si>
+    <t>施罗德环球基金系列中国优势A-累积-美元</t>
   </si>
   <si>
     <t>HK_20_F0000002PO</t>
@@ -322,13 +322,13 @@
     <t>LU0269904917</t>
   </si>
   <si>
-    <t>Schroder ISF Glb Em Mkt Opps A Acc USD</t>
-  </si>
-  <si>
-    <t>施羅德環球基金系列-新興市場股債優勢A</t>
-  </si>
-  <si>
-    <t>施罗德环球基金系列-新兴市场股债优势A</t>
+    <t>SCHRODER ISF GLOBAL EMERGING MKT OPP A-ACC-USD</t>
+  </si>
+  <si>
+    <t>施羅德環球基金系列新興市場股債優勢A-累積-美元</t>
+  </si>
+  <si>
+    <t>施罗德环球基金系列新兴市场股债优势A-累积-美元</t>
   </si>
   <si>
     <t>HK_20_F0GBR04ADF</t>
@@ -340,13 +340,13 @@
     <t>LU0106252389</t>
   </si>
   <si>
-    <t>Schroder ISF Em Mkts A Acc USD</t>
-  </si>
-  <si>
-    <t>施羅德環球基金系列 - 新興市場基金A-ACC</t>
-  </si>
-  <si>
-    <t>施罗德环球基金系列 - 新兴市场基金A-ACC</t>
+    <t>SCHRODER ISF EMERGING MKT A-ACC-USD</t>
+  </si>
+  <si>
+    <t>施羅德環球基金系列新興市場A-累積-美元</t>
+  </si>
+  <si>
+    <t>施罗德环球基金系列新兴市场A-累积-美元</t>
   </si>
   <si>
     <t>HK_20_F00000Y909</t>
@@ -355,16 +355,16 @@
     <t>06777</t>
   </si>
   <si>
-    <t>LU1737068558</t>
-  </si>
-  <si>
-    <t>Schroder ISF Glbl Crdt Inc A Acc USD</t>
-  </si>
-  <si>
-    <t>施羅德環球基金系列-環球收息債券 A Accumulation USD</t>
-  </si>
-  <si>
-    <t>施罗德环球基金系列-环球收息债券 A Accumulation USD</t>
+    <t>LU1514167136</t>
+  </si>
+  <si>
+    <t>SCHRODER ISF GLOBAL CREDIT INCOME A-ACC-USD</t>
+  </si>
+  <si>
+    <t>施羅德環球基金系列環球收息債券A-累積-美元</t>
+  </si>
+  <si>
+    <t>施罗德环球基金系列环球收息债券A-累积-美元</t>
   </si>
   <si>
     <t>HK_20_F0GBR05TVD</t>
@@ -373,16 +373,16 @@
     <t>06757</t>
   </si>
   <si>
-    <t>LU0189893018</t>
-  </si>
-  <si>
-    <t>Schroder ISF Glbl High Yld A Acc USD</t>
-  </si>
-  <si>
-    <t>施羅德環球基金系列-環球高收益A-ACC</t>
-  </si>
-  <si>
-    <t>施罗德环球基金系列-环球高收益A-ACC</t>
+    <t>LU0205194797</t>
+  </si>
+  <si>
+    <t>SCHRODER ISF GLOBAL HIGH YIELD A-ACC-USD</t>
+  </si>
+  <si>
+    <t>施羅德環球基金系列－環球高收益(美元)A-累積</t>
+  </si>
+  <si>
+    <t>施罗德环球基金系列 - 环球高收益(美元)A-累积</t>
   </si>
   <si>
     <t>HK_20_F0HKG05BUU</t>
@@ -394,13 +394,13 @@
     <t>HK0000039765</t>
   </si>
   <si>
-    <t>BOCHK Global Equity A USD</t>
-  </si>
-  <si>
-    <t>中銀香港環球股票基金 A</t>
-  </si>
-  <si>
-    <t>中银香港环球股票基金 A</t>
+    <t>BOCHK GLOBAL EQUITY A-USD</t>
+  </si>
+  <si>
+    <t>中銀香港環球股票基金A-美元</t>
+  </si>
+  <si>
+    <t>中银香港环球股票基金A-美元</t>
   </si>
   <si>
     <t>HK_20_F0GBR04NBF</t>
@@ -412,13 +412,13 @@
     <t>LU0124673897</t>
   </si>
   <si>
-    <t>AB Global Value A USD</t>
-  </si>
-  <si>
-    <t>聯博-環球價值基金A</t>
-  </si>
-  <si>
-    <t>联博-环球价值基金A</t>
+    <t>AB GLOBAL VALUE A-USD</t>
+  </si>
+  <si>
+    <t>聯博－環球價值基金</t>
+  </si>
+  <si>
+    <t>联博 - 环球价值基金</t>
   </si>
   <si>
     <t>HK_20_F0GBR04MRX</t>
@@ -427,16 +427,16 @@
     <t>16008</t>
   </si>
   <si>
-    <t>LU0102828612</t>
-  </si>
-  <si>
-    <t>AB - Short Dur Bd Port A2 ACCU</t>
-  </si>
-  <si>
-    <t>聯博－短期債券基金A2</t>
-  </si>
-  <si>
-    <t>联博－短期债券基金A2</t>
+    <t>LU0100120822</t>
+  </si>
+  <si>
+    <t>AB SHORT DURATION BOND A2-USD</t>
+  </si>
+  <si>
+    <t>聯博短期債券基金A2-美元</t>
+  </si>
+  <si>
+    <t>联博短期债券基金A2-美元</t>
   </si>
   <si>
     <t>HK_20_F0GBR05XC9</t>
@@ -445,16 +445,16 @@
     <t>16002</t>
   </si>
   <si>
-    <t>LU0095030564</t>
-  </si>
-  <si>
-    <t>AB American Income A2 USD</t>
-  </si>
-  <si>
-    <t>聯博-美元收益基金 - A2</t>
-  </si>
-  <si>
-    <t>联博-美元收益基金 - A2</t>
+    <t>LU0157308031</t>
+  </si>
+  <si>
+    <t>AB AMERICAN INCOME A2-USD</t>
+  </si>
+  <si>
+    <t>聯博-美國收益基金A2 美元</t>
+  </si>
+  <si>
+    <t>联博 - 美国收益基金A2 美元</t>
   </si>
   <si>
     <t>HK_20_F0000147JJ</t>
@@ -466,13 +466,13 @@
     <t>HK0000439601</t>
   </si>
   <si>
-    <t>ChinaAMC Select Fixed Inc Allc A USD Acc</t>
-  </si>
-  <si>
-    <t>華夏精選固定收益配置基金A USD Acc</t>
-  </si>
-  <si>
-    <t>华夏精选固定收益配置基金A USD Acc</t>
+    <t>ChinaAMC Select Fixed income Allocation fund</t>
+  </si>
+  <si>
+    <t>華夏精選固定收益配置基金</t>
+  </si>
+  <si>
+    <t>华夏精选固定收益配置基金</t>
   </si>
   <si>
     <t>HK_20_F00000V5WI</t>
@@ -481,16 +481,16 @@
     <t>05343</t>
   </si>
   <si>
-    <t>LU1041599405</t>
-  </si>
-  <si>
-    <t>JPM Income A (acc) USD</t>
-  </si>
-  <si>
-    <t>JPM環球債券收益（美元）－ A股（累計）</t>
-  </si>
-  <si>
-    <t>JPM环球债券收益（美元）－ A股（累计）</t>
+    <t>LU1128926489</t>
+  </si>
+  <si>
+    <t>JPMORGAN INCOME A (ACC)-USD</t>
+  </si>
+  <si>
+    <t>摩根環球債券收益A(累計)-美元</t>
+  </si>
+  <si>
+    <t>摩根环球债券收益A(累計)-美元</t>
   </si>
   <si>
     <t>HK_20_F0GBR053DP</t>
@@ -505,10 +505,10 @@
     <t>BGF World Healthscience A2</t>
   </si>
   <si>
-    <t>貝萊德全球基金 - 世界健康科學基金 - A2</t>
-  </si>
-  <si>
-    <t>贝莱德全球基金 - 世界健康科学基金 - A2</t>
+    <t>貝萊德全球基金 - 世界健康科學基金</t>
+  </si>
+  <si>
+    <t>贝莱德全球基金 - 世界健康科学基金 (美元) A2</t>
   </si>
   <si>
     <t>HK_20_F00000PPKH</t>
@@ -520,13 +520,13 @@
     <t>LU0882574055</t>
   </si>
   <si>
-    <t>Fidelity Global Health Care A-Acc-USD</t>
-  </si>
-  <si>
-    <t>富達基金 - 環球健康護理基金A ACC USD</t>
-  </si>
-  <si>
-    <t>富达基金 - 环球健康护理基金A ACC USD</t>
+    <t>FIDELITY GLOBAL HEALTH CARE A-ACC-USD</t>
+  </si>
+  <si>
+    <t>富達環球健康護理基金A-累積-美元</t>
+  </si>
+  <si>
+    <t>富达环球健康护理基金A-累积-美元</t>
   </si>
   <si>
     <t>HK_20_F00000JP5X</t>
@@ -538,13 +538,13 @@
     <t>LU0526926950</t>
   </si>
   <si>
-    <t>BGF European A2 USD Hedged</t>
-  </si>
-  <si>
-    <t>貝萊德全球基金 - 歐洲基金 - A2 USD Hdg</t>
-  </si>
-  <si>
-    <t>贝莱德全球基金 - 欧洲基金 - A2 USD Hdg</t>
+    <t>BLACKROCK EUROPEAN A2-USD H</t>
+  </si>
+  <si>
+    <t>貝萊德歐洲基金A2-美元對沖</t>
+  </si>
+  <si>
+    <t>贝莱德欧洲基金A2-美元对冲</t>
   </si>
   <si>
     <t>HK_20_F00000QJKF</t>
@@ -556,13 +556,13 @@
     <t>LU0969580561</t>
   </si>
   <si>
-    <t>BGF European Special Situations A2 USD H</t>
-  </si>
-  <si>
-    <t>貝萊德全球基金 - 歐洲特別時機基金 A2 (USDH)</t>
-  </si>
-  <si>
-    <t>贝莱德全球基金 - 欧洲特别时机基金 A2 (USDH)</t>
+    <t>BLACKROCK EUROPEAN SPECIAL SITUATIONS A2-USD H</t>
+  </si>
+  <si>
+    <t>貝萊德歐洲特別時機基金A2-美元對沖</t>
+  </si>
+  <si>
+    <t>贝莱德欧洲特别时机基金A2-美元对冲</t>
   </si>
   <si>
     <t>HK_20_F0GBR053E5</t>
@@ -574,13 +574,13 @@
     <t>LU0106831901</t>
   </si>
   <si>
-    <t>BGF World Financials A2</t>
-  </si>
-  <si>
-    <t>貝萊德全球基金 - 世界金融基金 - A2</t>
-  </si>
-  <si>
-    <t>贝莱德全球基金 - 世界金融基金 - A2</t>
+    <t>BlackRock Global Funds - World Financials Fund</t>
+  </si>
+  <si>
+    <t>貝萊德全球基金 - 世界金融基金</t>
+  </si>
+  <si>
+    <t>贝莱德全球基金 - 世界金融基金</t>
   </si>
   <si>
     <t>HK_20_F00000NDFL</t>
@@ -592,10 +592,10 @@
     <t>LU0683600562</t>
   </si>
   <si>
-    <t>AB Select US Equity A USD</t>
-  </si>
-  <si>
-    <t>聯博-精選美國股票基金 A</t>
+    <t>AB - Select US Equity Portfolio</t>
+  </si>
+  <si>
+    <t>聯博—精選美國股票基金</t>
   </si>
   <si>
     <t>联博-精选美国股票基金 A</t>
@@ -610,13 +610,13 @@
     <t>LU0679941327</t>
   </si>
   <si>
-    <t>BGF China Bond A2</t>
-  </si>
-  <si>
-    <t>貝萊德全球基金 - 中國債券基金A2 USD</t>
-  </si>
-  <si>
-    <t>贝来德全球基金 - 中国债券基金A2</t>
+    <t>BLACKROCK CHINA BOND A2-USD</t>
+  </si>
+  <si>
+    <t>貝萊德中國債券基金A2 美元</t>
+  </si>
+  <si>
+    <t>贝莱德中国债券基金A2 美元</t>
   </si>
   <si>
     <t>HK_20_F000014EYO</t>
@@ -628,13 +628,13 @@
     <t>LU2070343392</t>
   </si>
   <si>
-    <t>BGF China Bond A2 USD H</t>
-  </si>
-  <si>
-    <t>貝萊德全球基金 - 中國債券基金A2 美元對沖</t>
-  </si>
-  <si>
-    <t>贝来德全球基金 - 中国债券基金A2 美元对冲</t>
+    <t>BLACKROCK CHINA BOND A2-USD H</t>
+  </si>
+  <si>
+    <t>貝萊德中國債券基金A2 美元-對沖</t>
+  </si>
+  <si>
+    <t>贝莱德中国债券基金A2 美元-对冲</t>
   </si>
 </sst>
 </file>
